--- a/data/output/FV2310_FV2304/PARTIN/37001.xlsx
+++ b/data/output/FV2310_FV2304/PARTIN/37001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6632" uniqueCount="287">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6653" uniqueCount="287">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -985,6 +985,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U301" totalsRowShown="0">
+  <autoFilter ref="A1:U301"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1274,7 +1304,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -15292,5 +15325,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/PARTIN/37001.xlsx
+++ b/data/output/FV2310_FV2304/PARTIN/37001.xlsx
@@ -2328,7 +2328,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -3420,7 +3420,7 @@
         <v>255</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -3622,7 +3622,7 @@
         <v>255</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2"/>
@@ -5044,7 +5044,7 @@
         <v>259</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5978,24 +5978,24 @@
       <c r="V76" s="5"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="C77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
         <v>242</v>
       </c>
       <c r="K77" s="6" t="s">
@@ -6004,21 +6004,21 @@
       <c r="L77" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N77" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O77" s="5" t="s">
+      <c r="N77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O77" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5" t="s">
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2" t="s">
         <v>242</v>
       </c>
       <c r="V77" s="6" t="s">
@@ -6202,7 +6202,7 @@
         <v>262</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6728,7 +6728,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7202,7 +7202,7 @@
         <v>259</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7654,7 +7654,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7844,7 +7844,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8080,21 +8080,21 @@
       <c r="V118" s="5"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
+      <c r="C119" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
       <c r="J119" s="6" t="s">
         <v>239</v>
       </c>
@@ -8104,18 +8104,18 @@
       <c r="L119" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M119" s="5" t="s">
+      <c r="M119" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N119" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
+      <c r="N119" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
       <c r="U119" s="6" t="s">
         <v>273</v>
       </c>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8980,21 +8980,21 @@
       <c r="V136" s="5"/>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
+      <c r="C137" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
       <c r="J137" s="6" t="s">
         <v>239</v>
       </c>
@@ -9004,18 +9004,18 @@
       <c r="L137" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M137" s="5" t="s">
+      <c r="M137" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N137" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O137" s="5"/>
-      <c r="P137" s="5"/>
-      <c r="Q137" s="5"/>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="5"/>
+      <c r="N137" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
       <c r="U137" s="6" t="s">
         <v>274</v>
       </c>
@@ -9456,7 +9456,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9646,7 +9646,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9882,21 +9882,21 @@
       <c r="V154" s="5"/>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
+      <c r="C155" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
       <c r="J155" s="6" t="s">
         <v>239</v>
       </c>
@@ -9906,18 +9906,18 @@
       <c r="L155" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M155" s="5" t="s">
+      <c r="M155" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N155" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
+      <c r="N155" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
       <c r="U155" s="6" t="s">
         <v>275</v>
       </c>
@@ -10358,7 +10358,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -10784,21 +10784,21 @@
       <c r="V172" s="5"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
+      <c r="C173" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
       <c r="J173" s="6" t="s">
         <v>239</v>
       </c>
@@ -10808,18 +10808,18 @@
       <c r="L173" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M173" s="5" t="s">
+      <c r="M173" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N173" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O173" s="5"/>
-      <c r="P173" s="5"/>
-      <c r="Q173" s="5"/>
-      <c r="R173" s="5"/>
-      <c r="S173" s="5"/>
-      <c r="T173" s="5"/>
+      <c r="N173" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
       <c r="U173" s="6" t="s">
         <v>273</v>
       </c>
@@ -11258,7 +11258,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11448,7 +11448,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -11684,21 +11684,21 @@
       <c r="V190" s="5"/>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
+      <c r="C191" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
       <c r="J191" s="6" t="s">
         <v>239</v>
       </c>
@@ -11708,18 +11708,18 @@
       <c r="L191" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M191" s="5" t="s">
+      <c r="M191" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N191" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O191" s="5"/>
-      <c r="P191" s="5"/>
-      <c r="Q191" s="5"/>
-      <c r="R191" s="5"/>
-      <c r="S191" s="5"/>
-      <c r="T191" s="5"/>
+      <c r="N191" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
       <c r="U191" s="6" t="s">
         <v>273</v>
       </c>
@@ -12160,7 +12160,7 @@
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -12586,21 +12586,21 @@
       <c r="V208" s="5"/>
     </row>
     <row r="209" spans="1:22">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C209" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
+      <c r="C209" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
       <c r="J209" s="6" t="s">
         <v>239</v>
       </c>
@@ -12610,18 +12610,18 @@
       <c r="L209" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M209" s="5" t="s">
+      <c r="M209" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N209" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O209" s="5"/>
-      <c r="P209" s="5"/>
-      <c r="Q209" s="5"/>
-      <c r="R209" s="5"/>
-      <c r="S209" s="5"/>
-      <c r="T209" s="5"/>
+      <c r="N209" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2"/>
+      <c r="R209" s="2"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
       <c r="U209" s="6" t="s">
         <v>276</v>
       </c>
@@ -13060,7 +13060,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -13250,7 +13250,7 @@
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -13486,21 +13486,21 @@
       <c r="V226" s="5"/>
     </row>
     <row r="227" spans="1:22">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C227" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="5"/>
-      <c r="H227" s="5"/>
-      <c r="I227" s="5"/>
+      <c r="C227" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
       <c r="J227" s="6" t="s">
         <v>239</v>
       </c>
@@ -13510,18 +13510,18 @@
       <c r="L227" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M227" s="5" t="s">
+      <c r="M227" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N227" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O227" s="5"/>
-      <c r="P227" s="5"/>
-      <c r="Q227" s="5"/>
-      <c r="R227" s="5"/>
-      <c r="S227" s="5"/>
-      <c r="T227" s="5"/>
+      <c r="N227" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" s="2"/>
+      <c r="R227" s="2"/>
+      <c r="S227" s="2"/>
+      <c r="T227" s="2"/>
       <c r="U227" s="6" t="s">
         <v>275</v>
       </c>
@@ -13962,7 +13962,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -14152,7 +14152,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -14388,21 +14388,21 @@
       <c r="V244" s="5"/>
     </row>
     <row r="245" spans="1:22">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B245" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C245" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D245" s="5"/>
-      <c r="E245" s="5"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="5"/>
-      <c r="H245" s="5"/>
-      <c r="I245" s="5"/>
+      <c r="C245" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
       <c r="J245" s="6" t="s">
         <v>239</v>
       </c>
@@ -14412,18 +14412,18 @@
       <c r="L245" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M245" s="5" t="s">
+      <c r="M245" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N245" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O245" s="5"/>
-      <c r="P245" s="5"/>
-      <c r="Q245" s="5"/>
-      <c r="R245" s="5"/>
-      <c r="S245" s="5"/>
-      <c r="T245" s="5"/>
+      <c r="N245" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O245" s="2"/>
+      <c r="P245" s="2"/>
+      <c r="Q245" s="2"/>
+      <c r="R245" s="2"/>
+      <c r="S245" s="2"/>
+      <c r="T245" s="2"/>
       <c r="U245" s="6" t="s">
         <v>276</v>
       </c>
@@ -14862,7 +14862,7 @@
       </c>
       <c r="K254" s="2"/>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -15052,7 +15052,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -15310,7 +15310,7 @@
         <v>259</v>
       </c>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -15762,7 +15762,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -15952,7 +15952,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" s="4"/>
-      <c r="M276" s="2" t="s">
+      <c r="M276" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N276" s="2" t="s">
@@ -16188,21 +16188,21 @@
       <c r="V280" s="5"/>
     </row>
     <row r="281" spans="1:22">
-      <c r="A281" s="5" t="s">
+      <c r="A281" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B281" s="5" t="s">
+      <c r="B281" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C281" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D281" s="5"/>
-      <c r="E281" s="5"/>
-      <c r="F281" s="5"/>
-      <c r="G281" s="5"/>
-      <c r="H281" s="5"/>
-      <c r="I281" s="5"/>
+      <c r="C281" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
+      <c r="H281" s="2"/>
+      <c r="I281" s="2"/>
       <c r="J281" s="6" t="s">
         <v>239</v>
       </c>
@@ -16212,18 +16212,18 @@
       <c r="L281" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="M281" s="5" t="s">
+      <c r="M281" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N281" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O281" s="5"/>
-      <c r="P281" s="5"/>
-      <c r="Q281" s="5"/>
-      <c r="R281" s="5"/>
-      <c r="S281" s="5"/>
-      <c r="T281" s="5"/>
+      <c r="N281" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O281" s="2"/>
+      <c r="P281" s="2"/>
+      <c r="Q281" s="2"/>
+      <c r="R281" s="2"/>
+      <c r="S281" s="2"/>
+      <c r="T281" s="2"/>
       <c r="U281" s="6" t="s">
         <v>277</v>
       </c>
@@ -16666,7 +16666,7 @@
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="4"/>
-      <c r="M290" s="2" t="s">
+      <c r="M290" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N290" s="2" t="s">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="K294" s="2"/>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -17112,7 +17112,7 @@
       </c>
       <c r="K299" s="2"/>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N299" s="2"/>
